--- a/CarsMaintenance.xlsx
+++ b/CarsMaintenance.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
   <si>
     <t>2012 MB GL450 White</t>
   </si>
@@ -51,12 +51,6 @@
     <t>Replaced AC Clutch (Noise fix)</t>
   </si>
   <si>
-    <t>Rear Right Tire leak ( Tighten the nozzle to stop leaking air)</t>
-  </si>
-  <si>
-    <t>DRL</t>
-  </si>
-  <si>
     <t>VIN: 4JGBF7BEXCA771519 (Purchase date 5/21/2018 @78,744 miles</t>
   </si>
   <si>
@@ -72,21 +66,6 @@
     <t>Replaced Front Brake Pads Akebono</t>
   </si>
   <si>
-    <t>License Screws</t>
-  </si>
-  <si>
-    <t>NEW License Plate from DMV</t>
-  </si>
-  <si>
-    <t>Registration</t>
-  </si>
-  <si>
-    <t>Carbon Fiber for Sunroof and Windows Tint</t>
-  </si>
-  <si>
-    <t>EDEALYN Ultra-Luxury PU Leather Car seat Protection</t>
-  </si>
-  <si>
     <t>Drive Belt Idler Pully</t>
   </si>
   <si>
@@ -99,9 +78,6 @@
     <t>Oil and Filter change</t>
   </si>
   <si>
-    <t xml:space="preserve">8x Bosch YR7MPP33 Double Platinum Spark Plug </t>
-  </si>
-  <si>
     <t>3M Scotchgard Clear Paint Protection</t>
   </si>
   <si>
@@ -109,6 +85,54 @@
   </si>
   <si>
     <t>DVR(Radar, LaneDeparture)</t>
+  </si>
+  <si>
+    <t>Replaced 2x backup light bulbs</t>
+  </si>
+  <si>
+    <t>Rear License Plate Screws</t>
+  </si>
+  <si>
+    <t>Carbon Fiber film for Sunroof and Front Windshild and Windows Tint</t>
+  </si>
+  <si>
+    <t>DMV Registration</t>
+  </si>
+  <si>
+    <t>Rear Right Tire leak ( Tighten the nozzles to stop the leaking air)</t>
+  </si>
+  <si>
+    <t>Plastic Screws</t>
+  </si>
+  <si>
+    <t>Install a missing PDC sensor</t>
+  </si>
+  <si>
+    <t>Replace to LED bulbs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Replaced 8x Bosch YR7MPP33 Double Platinum Spark Plug </t>
+  </si>
+  <si>
+    <t>New CA License Plate from DMV</t>
+  </si>
+  <si>
+    <t>EDEALYN Ultra-Luxury PU Leather Car seat for driver</t>
+  </si>
+  <si>
+    <t>DRL 2x 20W</t>
+  </si>
+  <si>
+    <t>AC Condensor Replaced</t>
+  </si>
+  <si>
+    <t>Alternator Replaced</t>
+  </si>
+  <si>
+    <t>Battery Replaced</t>
+  </si>
+  <si>
+    <t>Replaced front and rear brakes to Akebono</t>
   </si>
 </sst>
 </file>
@@ -292,18 +316,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -328,6 +350,9 @@
     <xf numFmtId="3" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -355,7 +380,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>84667</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -386,13 +411,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>120648</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -713,23 +738,24 @@
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="26"/>
     <col min="3" max="3" width="45.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="9"/>
+    <col min="4" max="4" width="14.85546875" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="15"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -741,267 +767,273 @@
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="25" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="14"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="12"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="12"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="10"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="12"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="10"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="12"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="12"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="12"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="10"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="12"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="23">
+        <v>30000</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="10">
+        <v>150</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="12"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="10"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="12"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="10"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="12"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="10"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="12"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="10"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="12"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="10"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="12"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="10"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="12"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="10"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="12"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="10"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="12"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="10"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="12"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="10"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="12"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="10"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="12"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="10"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="12"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="10"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="12"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="10"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="12"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="10"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="12"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="10"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="12"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="10"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="12"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="10"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="12"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="10"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="12"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="10"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="12"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="10"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="12"/>
+      <c r="A32" s="5"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="10"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="12"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="10"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="12"/>
+      <c r="A34" s="5"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="10"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="12"/>
+      <c r="A35" s="5"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="10"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="12"/>
+      <c r="A36" s="5"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="10"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="12"/>
+      <c r="A37" s="5"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="10"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="12"/>
+      <c r="A38" s="5"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="10"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="12"/>
+      <c r="A39" s="5"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="10"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="12"/>
+      <c r="A40" s="5"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="10"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="12"/>
+      <c r="A41" s="5"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="10"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="12"/>
+      <c r="A42" s="5"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="10"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="12"/>
+      <c r="A43" s="5"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="10"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="12"/>
+      <c r="A44" s="5"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="10"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="12"/>
+      <c r="A45" s="5"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1013,22 +1045,23 @@
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="9.140625" style="26"/>
     <col min="3" max="3" width="62.28515625" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="9"/>
+    <col min="4" max="4" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -1037,270 +1070,276 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="12"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="10"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="12"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="10"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="12"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="10"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="12"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="12"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="12"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="10"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="12"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="10"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="12"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="10"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="12"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="10"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="12"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="10"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="12"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="10"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="12"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="10"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="12"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="10"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="12"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="10"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="12"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="10"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="12"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="10"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="12"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="10"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="12"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="10"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="12"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="10"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="12"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="10"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="12"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="10"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="12"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="10"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="12"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="10"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="12"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="10"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="12"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="10"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="12"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="10"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="12"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="10"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="12"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="10"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="12"/>
+      <c r="A32" s="5"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="10"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="12"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="10"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="12"/>
+      <c r="A34" s="5"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="10"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="12"/>
+      <c r="A35" s="5"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="10"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="12"/>
+      <c r="A36" s="5"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="10"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="12"/>
+      <c r="A37" s="5"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="10"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="12"/>
+      <c r="A38" s="5"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="10"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="12"/>
+      <c r="A39" s="5"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="10"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="12"/>
+      <c r="A40" s="5"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="10"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="12"/>
+      <c r="A41" s="5"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="10"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="12"/>
+      <c r="A42" s="5"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="10"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="12"/>
+      <c r="A43" s="5"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="10"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="12"/>
+      <c r="A44" s="5"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="10"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="12"/>
+      <c r="A45" s="5"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1309,483 +1348,521 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="28" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="26" customWidth="1"/>
     <col min="3" max="3" width="71.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="9"/>
+    <col min="4" max="4" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="21" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:4" s="19" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="24"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="25" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+      <c r="A3" s="6">
         <v>43241</v>
       </c>
-      <c r="B3" s="25">
+      <c r="B3" s="23">
         <v>78744</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="10"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="23">
+        <v>78744</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="10">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="12"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="25">
-        <v>78744</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="D10" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="10">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="10">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="10">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="12">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="12">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="7" t="s">
+      <c r="D14" s="10">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="12">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="12">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="7" t="s">
+      <c r="D16" s="10">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="10">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>43396</v>
+      </c>
+      <c r="B23" s="23">
+        <v>82500</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>43430</v>
+      </c>
+      <c r="B24" s="23">
+        <v>83000</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="10">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="12">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="12">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="12">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="12">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="7" t="s">
+      <c r="D26" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>43432</v>
+      </c>
+      <c r="B27" s="23">
+        <v>83300</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="12">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="12">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="12">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="12">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
-        <v>43396</v>
-      </c>
-      <c r="B20" s="25">
-        <v>82500</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="12">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
-        <v>43430</v>
-      </c>
-      <c r="B21" s="25">
-        <v>83000</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="12">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="7" t="s">
+      <c r="D27" s="10">
         <v>10</v>
       </c>
-      <c r="D22" s="12">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="12"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="12"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="12"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="12"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="12"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="10"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="12"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="10"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="12"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="10"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="12"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="10"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="12"/>
+      <c r="A32" s="5"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="10"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="12"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="10"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="12"/>
+      <c r="A34" s="5"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="10"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="12"/>
+      <c r="A35" s="5"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="10"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="12"/>
+      <c r="A36" s="5"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="10"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="12"/>
+      <c r="A37" s="5"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="10"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="12"/>
+      <c r="A38" s="5"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="10"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="12"/>
+      <c r="A39" s="5"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="10"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="12"/>
+      <c r="A40" s="5"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="10"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="12"/>
+      <c r="A41" s="5"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="10"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="7"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="12"/>
+      <c r="A42" s="5"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="10"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="12"/>
+      <c r="A43" s="5"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="10"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="7"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="12"/>
+      <c r="A44" s="5"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="10"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="7"/>
-      <c r="B45" s="25"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="12"/>
+      <c r="A45" s="5"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="10"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="7"/>
-      <c r="B46" s="25"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="12"/>
+      <c r="A46" s="5"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="10"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="7"/>
-      <c r="B47" s="25"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="12"/>
+      <c r="A47" s="5"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="10"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="7"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="12"/>
+      <c r="A48" s="5"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="10"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="7"/>
-      <c r="B49" s="25"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="12"/>
+      <c r="A49" s="5"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="10"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="7"/>
-      <c r="B50" s="25"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="12"/>
+      <c r="A50" s="5"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="10"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="7"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="12"/>
+      <c r="A51" s="5"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="10"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="7"/>
-      <c r="B52" s="25"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="12"/>
+      <c r="A52" s="5"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="10"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="7"/>
-      <c r="B53" s="25"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="12"/>
+      <c r="A53" s="5"/>
+      <c r="B53" s="23"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="10"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="7"/>
-      <c r="B54" s="25"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="12"/>
+      <c r="A54" s="5"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="10"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="7"/>
-      <c r="B55" s="25"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="12"/>
+      <c r="A55" s="5"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="10"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="7"/>
-      <c r="B56" s="25"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="12"/>
+      <c r="A56" s="5"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="10"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="7"/>
-      <c r="B57" s="25"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="12"/>
+      <c r="A57" s="5"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="10"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="7"/>
-      <c r="B58" s="25"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="12"/>
+      <c r="A58" s="5"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="10"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="7"/>
-      <c r="B59" s="25"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="12">
-        <f>SUM(D3:D58)</f>
-        <v>3481</v>
+      <c r="A59" s="5"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="10"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="5"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="10"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="5"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="10"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="5"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="10">
+        <f>SUM(D3:D61)</f>
+        <v>3599</v>
       </c>
     </row>
   </sheetData>

--- a/CarsMaintenance.xlsx
+++ b/CarsMaintenance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="11475" windowHeight="14385" activeTab="2"/>
+    <workbookView minimized="1" xWindow="480" yWindow="90" windowWidth="11475" windowHeight="14385" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BMW X6" sheetId="1" r:id="rId1"/>
@@ -735,10 +735,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="1"/>
+  </sheetPr>
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1042,10 +1045,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="2" tint="-0.249977111117893"/>
+  </sheetPr>
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1348,10 +1354,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="0"/>
+  </sheetPr>
   <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/CarsMaintenance.xlsx
+++ b/CarsMaintenance.xlsx
@@ -1,22 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\LinuxDaily\linux_daily\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC29237-BADC-4DBA-96D7-2C00440A4CBB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="480" yWindow="90" windowWidth="11475" windowHeight="14385" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="11475" windowHeight="14385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="BMW X6" sheetId="1" r:id="rId1"/>
-    <sheet name="Genesis4.6" sheetId="2" r:id="rId2"/>
-    <sheet name="MB GL450" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
+    <sheet name="BMW X6" sheetId="1" r:id="rId2"/>
+    <sheet name="Genesis4.6" sheetId="2" r:id="rId3"/>
+    <sheet name="MB GL450" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="49">
   <si>
     <t>2012 MB GL450 White</t>
   </si>
@@ -133,14 +148,45 @@
   </si>
   <si>
     <t>Replaced front and rear brakes to Akebono</t>
+  </si>
+  <si>
+    <t>Wipers changed</t>
+  </si>
+  <si>
+    <t>Gas expense</t>
+  </si>
+  <si>
+    <t>MB</t>
+  </si>
+  <si>
+    <t>Genesis</t>
+  </si>
+  <si>
+    <t>BMW</t>
+  </si>
+  <si>
+    <t>MPG</t>
+  </si>
+  <si>
+    <t>Gas Price</t>
+  </si>
+  <si>
+    <t>Mileage</t>
+  </si>
+  <si>
+    <t>Local</t>
+  </si>
+  <si>
+    <t>HWY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -174,7 +220,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -199,8 +245,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -312,11 +376,110 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -328,24 +491,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -353,6 +516,41 @@
     <xf numFmtId="3" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -362,6 +560,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -384,7 +585,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -422,7 +629,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -491,7 +704,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -524,9 +737,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -559,6 +789,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -734,7 +981,172 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65ABC6EA-D716-4280-8F49-E637BCA28C0E}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="44"/>
+      <c r="D1" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="42"/>
+      <c r="F1" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="40"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="30"/>
+      <c r="B2" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="45">
+        <v>5000</v>
+      </c>
+      <c r="C3" s="46">
+        <v>5000</v>
+      </c>
+      <c r="D3" s="45">
+        <v>60000</v>
+      </c>
+      <c r="E3" s="46">
+        <v>60000</v>
+      </c>
+      <c r="F3" s="45">
+        <v>60000</v>
+      </c>
+      <c r="G3" s="46">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="31">
+        <v>14</v>
+      </c>
+      <c r="C4" s="32">
+        <v>18</v>
+      </c>
+      <c r="D4" s="31">
+        <v>19</v>
+      </c>
+      <c r="E4" s="32">
+        <v>24</v>
+      </c>
+      <c r="F4" s="31">
+        <v>18</v>
+      </c>
+      <c r="G4" s="32">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="33">
+        <v>4</v>
+      </c>
+      <c r="C5" s="34">
+        <v>4</v>
+      </c>
+      <c r="D5" s="33">
+        <f>B5</f>
+        <v>4</v>
+      </c>
+      <c r="E5" s="34">
+        <f>C5</f>
+        <v>4</v>
+      </c>
+      <c r="F5" s="33">
+        <f>B5</f>
+        <v>4</v>
+      </c>
+      <c r="G5" s="34">
+        <f>C5</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="35">
+        <f>(B3/B4) * B5</f>
+        <v>1428.5714285714287</v>
+      </c>
+      <c r="C6" s="36">
+        <f>(C3/C4) * C5</f>
+        <v>1111.1111111111111</v>
+      </c>
+      <c r="D6" s="35">
+        <f>(D3/D4) * D5</f>
+        <v>12631.578947368422</v>
+      </c>
+      <c r="E6" s="36">
+        <f>(E3/E4) * E5</f>
+        <v>10000</v>
+      </c>
+      <c r="F6" s="35">
+        <f>(F3/F4) * F5</f>
+        <v>13333.333333333334</v>
+      </c>
+      <c r="G6" s="36">
+        <f>(G3/G4) * G5</f>
+        <v>10909.09090909091</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="1"/>
   </sheetPr>
@@ -1043,19 +1455,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="26"/>
     <col min="3" max="3" width="62.28515625" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="7"/>
@@ -1150,10 +1563,18 @@
       <c r="D12" s="10"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="10"/>
+      <c r="A13" s="6">
+        <v>43477</v>
+      </c>
+      <c r="B13" s="23">
+        <v>59000</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="10">
+        <v>20</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
@@ -1352,8 +1773,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="0"/>
   </sheetPr>
